--- a/backend/app/static/upload/Book1.xlsx
+++ b/backend/app/static/upload/Book1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -32,17 +32,29 @@
     <t>serialnumber</t>
   </si>
   <si>
-    <t>LMD0001</t>
+    <t>LMD0002</t>
+  </si>
+  <si>
+    <t>LMD0003</t>
+  </si>
+  <si>
+    <t>LMD0004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
